--- a/Slope Elevation.xlsx
+++ b/Slope Elevation.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceolenzak/Documents/GW - Senior LAST ONE/Data Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C4528A-BFDD-B94A-975D-371B52B85E7F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115A9935-83AB-BF43-AB92-BB7C4BAF72EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13880" yWindow="480" windowWidth="28040" windowHeight="16300" xr2:uid="{0FB13E78-A787-E24B-A7A5-5EC287BC4FBE}"/>
+    <workbookView xWindow="1780" yWindow="520" windowWidth="21380" windowHeight="16300" xr2:uid="{0FB13E78-A787-E24B-A7A5-5EC287BC4FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -66,8 +66,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,7 +386,7 @@
   <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -414,8 +415,9 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1227.05</v>
+      <c r="B3" s="1">
+        <f>B2+0.0256</f>
+        <v>1227.0255999999999</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -423,7 +425,8 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1227.0999999999999</v>
+        <f t="shared" ref="B4:B40" si="0">B3+0.0256</f>
+        <v>1227.0511999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -431,8 +434,8 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <f>B4+0.05</f>
-        <v>1227.1499999999999</v>
+        <f t="shared" si="0"/>
+        <v>1227.0767999999998</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -440,8 +443,8 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <f t="shared" ref="B6:B52" si="0">B5+0.05</f>
-        <v>1227.1999999999998</v>
+        <f t="shared" si="0"/>
+        <v>1227.1023999999998</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -450,7 +453,7 @@
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>1227.2499999999998</v>
+        <v>1227.1279999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -459,7 +462,7 @@
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>1227.2999999999997</v>
+        <v>1227.1535999999996</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -468,7 +471,7 @@
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>1227.3499999999997</v>
+        <v>1227.1791999999996</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -477,7 +480,7 @@
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>1227.3999999999996</v>
+        <v>1227.2047999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -486,7 +489,7 @@
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>1227.4499999999996</v>
+        <v>1227.2303999999995</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -495,7 +498,7 @@
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>1227.4999999999995</v>
+        <v>1227.2559999999994</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -505,7 +508,7 @@
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>1227.5499999999995</v>
+        <v>1227.2815999999993</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -515,7 +518,7 @@
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>1227.5999999999995</v>
+        <v>1227.3071999999993</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -525,7 +528,7 @@
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>1227.6499999999994</v>
+        <v>1227.3327999999992</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -535,7 +538,7 @@
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>1227.6999999999994</v>
+        <v>1227.3583999999992</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -545,7 +548,7 @@
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>1227.7499999999993</v>
+        <v>1227.3839999999991</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -555,7 +558,7 @@
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>1227.7999999999993</v>
+        <v>1227.409599999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -565,7 +568,7 @@
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>1227.8499999999992</v>
+        <v>1227.435199999999</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -575,7 +578,7 @@
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>1227.8999999999992</v>
+        <v>1227.4607999999989</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -585,7 +588,7 @@
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>1227.9499999999991</v>
+        <v>1227.4863999999989</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -595,7 +598,7 @@
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>1227.9999999999991</v>
+        <v>1227.5119999999988</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -605,7 +608,7 @@
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>1228.049999999999</v>
+        <v>1227.5375999999987</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -615,7 +618,7 @@
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>1228.099999999999</v>
+        <v>1227.5631999999987</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -625,7 +628,7 @@
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>1228.149999999999</v>
+        <v>1227.5887999999986</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -635,7 +638,7 @@
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>1228.1999999999989</v>
+        <v>1227.6143999999986</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -645,7 +648,7 @@
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>1228.2499999999989</v>
+        <v>1227.6399999999985</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -655,7 +658,7 @@
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>1228.2999999999988</v>
+        <v>1227.6655999999984</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -665,7 +668,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>1228.3499999999988</v>
+        <v>1227.6911999999984</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -675,7 +678,7 @@
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>1228.3999999999987</v>
+        <v>1227.7167999999983</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -685,7 +688,7 @@
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>1228.4499999999987</v>
+        <v>1227.7423999999983</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -695,7 +698,7 @@
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>1228.4999999999986</v>
+        <v>1227.7679999999982</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -705,7 +708,7 @@
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>1228.5499999999986</v>
+        <v>1227.7935999999982</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -715,7 +718,7 @@
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>1228.5999999999985</v>
+        <v>1227.8191999999981</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -725,7 +728,7 @@
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>1228.6499999999985</v>
+        <v>1227.844799999998</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -735,7 +738,7 @@
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>1228.6999999999985</v>
+        <v>1227.870399999998</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -745,7 +748,7 @@
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>1228.7499999999984</v>
+        <v>1227.8959999999979</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -755,7 +758,7 @@
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>1228.7999999999984</v>
+        <v>1227.9215999999979</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -765,7 +768,7 @@
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>1228.8499999999983</v>
+        <v>1227.9471999999978</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -775,7 +778,7 @@
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>1228.8999999999983</v>
+        <v>1227.9727999999977</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -784,8 +787,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <f t="shared" si="0"/>
-        <v>1228.9499999999982</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -794,8 +796,8 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <f t="shared" si="0"/>
-        <v>1228.9999999999982</v>
+        <f t="shared" ref="B42:B52" si="2">B41+0.05</f>
+        <v>1228.05</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -804,8 +806,8 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <f t="shared" si="0"/>
-        <v>1229.0499999999981</v>
+        <f t="shared" si="2"/>
+        <v>1228.0999999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -814,8 +816,8 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <f t="shared" si="0"/>
-        <v>1229.0999999999981</v>
+        <f t="shared" si="2"/>
+        <v>1228.1499999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -824,8 +826,8 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <f t="shared" si="0"/>
-        <v>1229.149999999998</v>
+        <f t="shared" si="2"/>
+        <v>1228.1999999999998</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -834,8 +836,8 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <f t="shared" si="0"/>
-        <v>1229.199999999998</v>
+        <f t="shared" si="2"/>
+        <v>1228.2499999999998</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -844,8 +846,8 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <f t="shared" si="0"/>
-        <v>1229.249999999998</v>
+        <f t="shared" si="2"/>
+        <v>1228.2999999999997</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -854,8 +856,8 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <f t="shared" si="0"/>
-        <v>1229.2999999999979</v>
+        <f t="shared" si="2"/>
+        <v>1228.3499999999997</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -864,8 +866,8 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <f t="shared" si="0"/>
-        <v>1229.3499999999979</v>
+        <f t="shared" si="2"/>
+        <v>1228.3999999999996</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -874,8 +876,8 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <f t="shared" si="0"/>
-        <v>1229.3999999999978</v>
+        <f t="shared" si="2"/>
+        <v>1228.4499999999996</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -884,8 +886,8 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <f t="shared" si="0"/>
-        <v>1229.4499999999978</v>
+        <f t="shared" si="2"/>
+        <v>1228.4999999999995</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -894,8 +896,8 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <f t="shared" si="0"/>
-        <v>1229.4999999999977</v>
+        <f t="shared" si="2"/>
+        <v>1228.5499999999995</v>
       </c>
     </row>
   </sheetData>
